--- a/USA Today Automation TestCases/NHL/TestCases.xlsx
+++ b/USA Today Automation TestCases/NHL/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1497,7 @@
         <v>250</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -1524,7 +1524,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
